--- a/car_dealer_single_page.xlsx
+++ b/car_dealer_single_page.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2015 Mercedes-Benz GLA-Class GLA 250 4MATIC</t>
+          <t>2008 Porsche Cayman S</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$17,990</t>
+          <t>$31,990</t>
         </is>
       </c>
     </row>
@@ -1489,34 +1489,34 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024 BMW i7 eDrive50</t>
+          <t>2005 Chevrolet Malibu LT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Baron BMW MINI</t>
+          <t>Metro Motors KC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(1,924 reviews)</t>
+          <t>(32 reviews)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>$127,820</t>
+          <t>$3,977</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2019 BMW i8 Base</t>
+          <t>2024 BMW i7 eDrive50</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1536,311 +1536,311 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>$74,944</t>
+          <t>$127,820</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024 Land Rover Defender P300</t>
+          <t>2019 BMW i8 Base</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aristocrat Motors</t>
+          <t>Baron BMW MINI</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>(1,424 reviews)</t>
+          <t>(1,924 reviews)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>$69,800</t>
+          <t>$74,944</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2016 Audi RS 7 4.0T Performance Prestige</t>
+          <t>2024 Land Rover Defender P300</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Audi Shawnee Mission</t>
+          <t>Aristocrat Motors</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>(102 reviews)</t>
+          <t>(1,424 reviews)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>$61,900</t>
+          <t>$69,800</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2018 MINI Hardtop John Cooper Works</t>
+          <t>2016 Audi RS 7 4.0T Performance Prestige</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CarMax Kansas City - Offering Express Pickup and Home Delivery</t>
+          <t>Audi Shawnee Mission</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(307 reviews)</t>
+          <t>(102 reviews)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>$25,998</t>
+          <t>$61,900</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022 MINI Hardtop Cooper S</t>
+          <t>2018 MINI Hardtop John Cooper Works</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Baron BMW MINI</t>
+          <t>CarMax Kansas City - Offering Express Pickup and Home Delivery</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>(1,924 reviews)</t>
+          <t>(307 reviews)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>$26,064</t>
+          <t>$25,998</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2023 Audi Q5 Sportback S line Prestige</t>
+          <t>2022 MINI Hardtop Cooper S</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Walser Auto Campus</t>
+          <t>Baron BMW MINI</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(0 reviews)</t>
+          <t>(1,924 reviews)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>$46,998</t>
+          <t>$26,064</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2019 MINI Hardtop Cooper S</t>
+          <t>2023 Audi Q5 Sportback S line Prestige</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Baron BMW MINI</t>
+          <t>Walser Auto Campus</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>(1,924 reviews)</t>
+          <t>(0 reviews)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>$20,874</t>
+          <t>$46,998</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2009 Lexus SC 430 Base</t>
+          <t>2019 MINI Hardtop Cooper S</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Walser Auto Campus</t>
+          <t>Baron BMW MINI</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>(0 reviews)</t>
+          <t>(1,924 reviews)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>$22,498</t>
+          <t>$20,874</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024 Land Rover Defender P400 S</t>
+          <t>2009 Lexus SC 430 Base</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Aristocrat Motors</t>
+          <t>Walser Auto Campus</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>(1,424 reviews)</t>
+          <t>(0 reviews)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>$79,680</t>
+          <t>$22,498</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2013 Volkswagen CC 2.0T Sport</t>
+          <t>2024 Land Rover Defender P400 S</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Allen Automotive</t>
+          <t>Aristocrat Motors</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>(33 reviews)</t>
+          <t>(1,424 reviews)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>$7,998</t>
+          <t>$79,680</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2017 Audi A8 L 4.0T Sport</t>
+          <t>2013 Volkswagen CC 2.0T Sport</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aristocrat Motors</t>
+          <t>Allen Automotive</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>(1,424 reviews)</t>
+          <t>(33 reviews)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>$28,977</t>
+          <t>$7,998</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024 BMW i7 xDrive60</t>
+          <t>2017 Audi A8 L 4.0T Sport</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Baron BMW MINI</t>
+          <t>Aristocrat Motors</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>(1,924 reviews)</t>
+          <t>(1,424 reviews)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>$131,945</t>
+          <t>$28,977</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024 BMW i7 eDrive50</t>
+          <t>2024 BMW i7 xDrive60</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1860,41 +1860,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>$124,085</t>
+          <t>$131,945</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024 Mercedes-Benz AMG EQE Base</t>
+          <t>2024 BMW i7 eDrive50</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Aristocrat Motors</t>
+          <t>Baron BMW MINI</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>(1,424 reviews)</t>
+          <t>(1,924 reviews)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>$110,610</t>
+          <t>$124,085</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024 Land Rover Defender P525 Carpathian Edition</t>
+          <t>2024 Mercedes-Benz AMG EQE Base</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1914,14 +1914,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>$119,978</t>
+          <t>$110,610</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024 Mercedes-Benz AMG EQE Base</t>
+          <t>2024 Land Rover Defender P525 Carpathian Edition</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1941,68 +1941,68 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>$116,150</t>
+          <t>$119,978</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023 Fisker Ocean Extreme</t>
+          <t>2024 Mercedes-Benz AMG EQE Base</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Baron BMW MINI</t>
+          <t>Aristocrat Motors</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>(1,924 reviews)</t>
+          <t>(1,424 reviews)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>$37,770</t>
+          <t>$116,150</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022 Lexus NX 350h NX 350h</t>
+          <t>2023 Fisker Ocean Extreme</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Walser Auto Campus</t>
+          <t>Baron BMW MINI</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(0 reviews)</t>
+          <t>(1,924 reviews)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>$43,698</t>
+          <t>$37,770</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020 BMW 440 440i</t>
+          <t>2022 Lexus NX 350h NX 350h</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2022,14 +2022,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>$37,998</t>
+          <t>$43,698</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024 Porsche Taycan </t>
+          <t>2020 BMW 440 440i</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2049,95 +2049,95 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>$98,998</t>
+          <t>$37,998</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023 Audi RS Q8 4.0T quattro</t>
+          <t xml:space="preserve">2024 Porsche Taycan </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Audi Shawnee Mission</t>
+          <t>Walser Auto Campus</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(102 reviews)</t>
+          <t>(0 reviews)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>$137,987</t>
+          <t>$98,998</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">2006 Pontiac Solstice </t>
+          <t>2023 Audi RS Q8 4.0T quattro</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Walser Auto Campus</t>
+          <t>Audi Shawnee Mission</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(0 reviews)</t>
+          <t>(102 reviews)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>$11,498</t>
+          <t>$137,987</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2024 Land Rover Defender P300</t>
+          <t xml:space="preserve">2006 Pontiac Solstice </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Aristocrat Motors</t>
+          <t>Walser Auto Campus</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>(1,424 reviews)</t>
+          <t>(0 reviews)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>$73,130</t>
+          <t>$11,498</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2024 Mercedes-Benz CLA 250 Base 4MATIC</t>
+          <t>2024 Land Rover Defender P300</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2157,154 +2157,154 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>$51,850</t>
+          <t>$73,130</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2011 Volkswagen CC Sport</t>
+          <t>2024 Mercedes-Benz CLA 250 Base 4MATIC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Allen Automotive</t>
+          <t>Aristocrat Motors</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(33 reviews)</t>
+          <t>(1,424 reviews)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>$7,998</t>
+          <t>$51,850</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024 BMW i7 xDrive60</t>
+          <t>2011 Volkswagen CC Sport</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Baron BMW MINI</t>
+          <t>Allen Automotive</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(1,924 reviews)</t>
+          <t>(33 reviews)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>$130,495</t>
+          <t>$7,998</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020 BMW M4 </t>
+          <t>2024 BMW i7 xDrive60</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Walser Auto Campus</t>
+          <t>Baron BMW MINI</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(0 reviews)</t>
+          <t>(1,924 reviews)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>$58,998</t>
+          <t>$130,495</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2007 Pontiac Solstice GXP</t>
+          <t xml:space="preserve">2020 BMW M4 </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Country Hill Motors of Merriam</t>
+          <t>Walser Auto Campus</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(163 reviews)</t>
+          <t>(0 reviews)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>$14,500</t>
+          <t>$58,998</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2009 Buick Lucerne CXL</t>
+          <t>2007 Pontiac Solstice GXP</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Allen Automotive</t>
+          <t>Country Hill Motors of Merriam</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>(33 reviews)</t>
+          <t>(163 reviews)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>$11,499</t>
+          <t>$14,500</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023 Audi A4 S line Premium</t>
+          <t>2009 Buick Lucerne CXL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Walser Auto Campus</t>
+          <t>Allen Automotive</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2314,39 +2314,39 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(0 reviews)</t>
+          <t>(33 reviews)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>$33,498</t>
+          <t>$11,499</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2024 Audi S5 3.0T Premium</t>
+          <t>2023 Audi A4 S line Premium</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Audi Shawnee Mission</t>
+          <t>Walser Auto Campus</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(102 reviews)</t>
+          <t>(0 reviews)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>$75,470</t>
+          <t>$33,498</t>
         </is>
       </c>
     </row>
@@ -2373,41 +2373,41 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>$78,170</t>
+          <t>$75,470</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2006 Chevrolet Malibu Maxx LT</t>
+          <t>2024 Audi S5 3.0T Premium</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KC Used Car Emporium</t>
+          <t>Audi Shawnee Mission</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(235 reviews)</t>
+          <t>(102 reviews)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>$2,497</t>
+          <t>$78,170</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2010 Pontiac G6 Base</t>
+          <t>2006 Chevrolet Malibu Maxx LT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2427,61 +2427,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>$6,197</t>
+          <t>$2,497</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2022 Chevrolet Equinox 1LT</t>
+          <t>2010 Pontiac G6 Base</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nissan of Olathe</t>
+          <t>KC Used Car Emporium</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(164 reviews)</t>
+          <t>(235 reviews)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>$23,997</t>
+          <t>$6,197</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2007 Pontiac Solstice Base 2dr Convertible</t>
+          <t>2022 Chevrolet Equinox 1LT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Northland Auto KC</t>
+          <t>Nissan of Olathe</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>(3 reviews)</t>
+          <t>(164 reviews)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>$12,500</t>
+          <t>$23,997</t>
         </is>
       </c>
     </row>

--- a/car_dealer_single_page.xlsx
+++ b/car_dealer_single_page.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2008 Porsche Cayman S</t>
+          <t>2015 Mercedes-Benz GLA-Class GLA 250 4MATIC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$31,990</t>
+          <t>$17,990</t>
         </is>
       </c>
     </row>

--- a/car_dealer_single_page.xlsx
+++ b/car_dealer_single_page.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mileage</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dealer Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Rating</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Review Count</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
@@ -463,27 +468,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2015 Mercedes-Benz GLA-Class GLA 250 4MATIC</t>
+          <t>2008 Porsche Cayman S</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>58,589 mi.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Aristocrat Motors Lee's Summit</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>(17 reviews)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$17,990</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>$31,990</t>
         </is>
       </c>
     </row>
@@ -495,20 +505,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>14,384 mi.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>AutoDreams</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>(71 reviews)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>$24,499</t>
         </is>
@@ -522,20 +537,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>36,318 mi.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Executive Automotive, Inc.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>(35 reviews)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>$22,990</t>
         </is>
@@ -549,20 +569,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>150,004 mi.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>McCarthy Chevrolet Lee's Summit</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>(435 reviews)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>$12,000</t>
         </is>
@@ -576,20 +601,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>31,660 mi.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Walser Auto Campus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>(0 reviews)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>$48,598</t>
         </is>
@@ -603,20 +633,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>3,618 mi.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Aristocrat Motors Lee's Summit</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>(17 reviews)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>$242,790</t>
         </is>
@@ -630,20 +665,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>67,050 mi.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Pinnacle Investments LLC</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>(72 reviews)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>$10,995</t>
         </is>
@@ -657,20 +697,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>66,458 mi.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Mccarthy Jeep Ram Chrysler Dodge of Lee's Summit</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>(1,776 reviews)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>$22,000</t>
         </is>
@@ -684,20 +729,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>16,816 mi.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Max Chrysler Dodge Jeep Ram Belton</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>(705 reviews)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>$31,985</t>
         </is>
@@ -711,20 +761,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>13,312 mi.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Max Chrysler Dodge Jeep Ram Belton</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>(705 reviews)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>$65,084</t>
         </is>
@@ -738,20 +793,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>83,479 mi.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Lee's Summit Subaru</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>(81 reviews)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>$21,381</t>
         </is>
@@ -765,20 +825,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>20,692 mi.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Crest Auto Group</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>(24 reviews)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>$63,900</t>
         </is>
@@ -792,20 +857,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Mercedes-Benz of Kansas City</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>(822 reviews)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>$116,435</t>
         </is>
@@ -819,20 +889,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Mercedes-Benz of Kansas City</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>(822 reviews)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>$124,085</t>
         </is>
@@ -846,20 +921,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>69,710 mi.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Luther Mazda of Kansas City</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>(151 reviews)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>$54,579</t>
         </is>
@@ -873,20 +953,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>13,229 mi.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Luther Mazda of Kansas City</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>(151 reviews)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>$39,995</t>
         </is>
@@ -900,20 +985,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>BMW of Kansas City South</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>(241 reviews)</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>$131,840</t>
         </is>
@@ -927,20 +1017,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>BMW of Kansas City South</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>(241 reviews)</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>$114,740</t>
         </is>
@@ -954,20 +1049,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>BMW of Kansas City South</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>(241 reviews)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>$111,910</t>
         </is>
@@ -981,20 +1081,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>221,672 mi.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>5 Star Motor Company</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>(3 reviews)</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>$15,950</t>
         </is>
@@ -1008,20 +1113,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>24,051 mi.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>BMW of Kansas City South</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>(241 reviews)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>$66,702</t>
         </is>
@@ -1035,20 +1145,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>170,729 mi.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>CarZone</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>(9 reviews)</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>$11,500</t>
         </is>
@@ -1062,20 +1177,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>54,105 mi.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>CarMax Independence - Offering Express Pickup and Home Delivery</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>(29 reviews)</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>$16,998</t>
         </is>
@@ -1089,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>145,703 mi.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1103,6 +1223,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>$13,500</t>
         </is>
@@ -1116,20 +1241,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>47,302 mi.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>CarMax Independence - Offering Express Pickup and Home Delivery</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>(29 reviews)</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>$19,998</t>
         </is>
@@ -1143,20 +1273,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>89,089 mi.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Expo Motors LLC</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>(1 review)</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>$12,985</t>
         </is>
@@ -1170,20 +1305,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>146,173 mi.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Universal Auto Plaza</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>(246 reviews)</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>$19,970</t>
         </is>
@@ -1197,20 +1337,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>72,434 mi.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Autobahn Motors</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>(30 reviews)</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>$10,995</t>
         </is>
@@ -1224,20 +1369,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>67,569 mi.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Autobahn Motors</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>(30 reviews)</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>$12,995</t>
         </is>
@@ -1251,20 +1401,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>84,434 mi.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Autobahn Motors</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>(30 reviews)</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>$12,900</t>
         </is>
@@ -1278,20 +1433,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>64,815 mi.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Autobahn Motors</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>(30 reviews)</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>$12,995</t>
         </is>
@@ -1305,20 +1465,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>73,495 mi.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Autobahn Motors</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>(30 reviews)</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>$8,995</t>
         </is>
@@ -1332,20 +1497,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>77,753 mi.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Autobahn Motors</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>(30 reviews)</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>$9,995</t>
         </is>
@@ -1359,20 +1529,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>111,433 mi.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Autobahn Motors</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>(30 reviews)</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>$10,995</t>
         </is>
@@ -1386,20 +1561,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>82,679 mi.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Overland Park Imports</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>2.8</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>(91 reviews)</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>$24,950</t>
         </is>
@@ -1413,20 +1593,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>113,431 mi.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Autobahn Motors</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>(30 reviews)</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>$12,995</t>
         </is>
@@ -1440,20 +1625,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>6,904 mi.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Hendrick Chevrolet Shawnee Mission</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>(895 reviews)</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>$64,997</t>
         </is>
@@ -1467,20 +1657,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>125,043 mi.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Metro Motors KC</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>(32 reviews)</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>$5,777</t>
         </is>
@@ -1494,20 +1689,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>145,895 mi.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Metro Motors KC</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>(32 reviews)</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>$3,977</t>
         </is>
@@ -1521,20 +1721,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Baron BMW MINI</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>(1,924 reviews)</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>$127,820</t>
         </is>
@@ -1548,20 +1753,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>25,902 mi.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Baron BMW MINI</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>(1,924 reviews)</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>$74,944</t>
         </is>
@@ -1575,20 +1785,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Aristocrat Motors</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>(1,424 reviews)</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>$69,800</t>
         </is>
@@ -1602,20 +1817,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>41,909 mi.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Audi Shawnee Mission</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>(102 reviews)</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>$61,900</t>
         </is>
@@ -1629,20 +1849,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>36,433 mi.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>CarMax Kansas City - Offering Express Pickup and Home Delivery</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>(307 reviews)</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>$25,998</t>
         </is>
@@ -1656,20 +1881,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>14,505 mi.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Baron BMW MINI</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>(1,924 reviews)</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>$26,064</t>
         </is>
@@ -1683,20 +1913,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>15,435 mi.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Walser Auto Campus</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>(0 reviews)</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>$46,998</t>
         </is>
@@ -1710,20 +1945,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>30,640 mi.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Baron BMW MINI</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>(1,924 reviews)</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>$20,874</t>
         </is>
@@ -1737,20 +1977,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>103,491 mi.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Walser Auto Campus</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>(0 reviews)</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>$22,498</t>
         </is>
@@ -1764,20 +2009,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Aristocrat Motors</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>(1,424 reviews)</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>$79,680</t>
         </is>
@@ -1791,20 +2041,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>143,189 mi.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>Allen Automotive</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>(33 reviews)</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>$7,998</t>
         </is>
@@ -1818,20 +2073,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>84,551 mi.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Aristocrat Motors</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>(1,424 reviews)</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>$28,977</t>
         </is>
@@ -1845,20 +2105,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>Baron BMW MINI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>(1,924 reviews)</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>$131,945</t>
         </is>
@@ -1872,20 +2137,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>Baron BMW MINI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>(1,924 reviews)</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>$124,085</t>
         </is>
@@ -1899,20 +2169,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>Aristocrat Motors</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>(1,424 reviews)</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>$110,610</t>
         </is>
@@ -1926,20 +2201,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Aristocrat Motors</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>(1,424 reviews)</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>$119,978</t>
         </is>
@@ -1953,20 +2233,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>Aristocrat Motors</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>(1,424 reviews)</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>$116,150</t>
         </is>
@@ -1980,20 +2265,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>2,084 mi.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>Baron BMW MINI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>(1,924 reviews)</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>$37,770</t>
         </is>
@@ -2007,20 +2297,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>16,438 mi.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Walser Auto Campus</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>(0 reviews)</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>$43,698</t>
         </is>
@@ -2034,20 +2329,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>16,687 mi.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>Walser Auto Campus</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>(0 reviews)</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>$37,998</t>
         </is>
@@ -2061,20 +2361,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>1,909 mi.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>Walser Auto Campus</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>(0 reviews)</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>$98,998</t>
         </is>
@@ -2088,20 +2393,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>2,160 mi.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>Audi Shawnee Mission</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>(102 reviews)</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>$137,987</t>
         </is>
@@ -2115,20 +2425,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>69,503 mi.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>Walser Auto Campus</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>(0 reviews)</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>$11,498</t>
         </is>
@@ -2142,20 +2457,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>Aristocrat Motors</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>(1,424 reviews)</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>$73,130</t>
         </is>
@@ -2169,20 +2489,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>Aristocrat Motors</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>(1,424 reviews)</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>$51,850</t>
         </is>
@@ -2196,20 +2521,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>127,396 mi.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>Allen Automotive</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>(33 reviews)</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>$7,998</t>
         </is>
@@ -2223,20 +2553,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>Baron BMW MINI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>(1,924 reviews)</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>$130,495</t>
         </is>
@@ -2250,20 +2585,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>30,352 mi.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>Walser Auto Campus</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>(0 reviews)</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>$58,998</t>
         </is>
@@ -2277,20 +2617,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>35,968 mi.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>Country Hill Motors of Merriam</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>(163 reviews)</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>$14,500</t>
         </is>
@@ -2304,20 +2649,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>59,258 mi.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>Allen Automotive</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>(33 reviews)</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>$11,499</t>
         </is>
@@ -2331,20 +2681,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>14,622 mi.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>Walser Auto Campus</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>(0 reviews)</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>$33,498</t>
         </is>
@@ -2358,20 +2713,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>Audi Shawnee Mission</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>(102 reviews)</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>$75,470</t>
         </is>
@@ -2385,20 +2745,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>Audi Shawnee Mission</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>(102 reviews)</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>$78,170</t>
         </is>
@@ -2412,20 +2777,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>266,001 mi.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>KC Used Car Emporium</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>(235 reviews)</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>$2,497</t>
         </is>
@@ -2439,20 +2809,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>123,384 mi.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>KC Used Car Emporium</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>(235 reviews)</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>$6,197</t>
         </is>
@@ -2466,20 +2841,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>23,860 mi.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>Nissan of Olathe</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>(164 reviews)</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>$23,997</t>
         </is>
@@ -2493,20 +2873,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>35,959 mi.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>Oakes Kia</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>(3,960 reviews)</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>$15,500</t>
         </is>
@@ -2520,20 +2905,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>6,898 mi.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>Tumminia Mazda</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>(49 reviews)</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>$27,988</t>
         </is>
@@ -2547,20 +2937,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>73,550 mi.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>Northtowne Fiat, Lincoln, Mitsubishi, Alfa Romeo</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>(709 reviews)</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>$12,740</t>
         </is>
@@ -2574,20 +2969,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>69,855 mi.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>Northtowne Fiat, Lincoln, Mitsubishi, Alfa Romeo</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>(709 reviews)</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>$24,900</t>
         </is>
@@ -2601,7 +3001,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>182,000 mi.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2615,6 +3015,11 @@
         </is>
       </c>
       <c r="E81" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>$6,000</t>
         </is>
@@ -2628,7 +3033,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>83,300 mi.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2642,6 +3047,11 @@
         </is>
       </c>
       <c r="E82" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
         <is>
           <t>$7,500</t>
         </is>
@@ -2655,20 +3065,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>56,949 mi.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>Northtowne Volkswagen, Hyundai, Mazda</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>(845 reviews)</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>$17,988</t>
         </is>
@@ -2682,7 +3097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>63,800 mi.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2696,6 +3111,11 @@
         </is>
       </c>
       <c r="E84" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>$21,000</t>
         </is>
@@ -2709,20 +3129,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>82,002 mi.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>Gary Crossley Ford</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>3.7</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>(1,060 reviews)</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>$34,000</t>
         </is>
@@ -2736,20 +3161,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>64,905 mi.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>Car City Wholesale</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>(35 reviews)</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>$33,874</t>
         </is>
@@ -2763,20 +3193,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>124,376 mi.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>Korz Auto Farm</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>(325 reviews)</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>$5,450</t>
         </is>
@@ -2790,20 +3225,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>141,080 mi.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>Korz Auto Farm</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>(325 reviews)</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>$5,450</t>
         </is>
@@ -2817,20 +3257,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>220,667 mi.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>Korz Auto Farm</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>(325 reviews)</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>$4,950</t>
         </is>
@@ -2844,20 +3289,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>198,827 mi.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>Jay Wolfe Auto Outlet</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>(11 reviews)</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>$5,450</t>
         </is>
@@ -2871,20 +3321,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>31,453 mi.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Woodhouse.com</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>$23,850</t>
         </is>
@@ -2898,20 +3353,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>51,491 mi.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>Woodhouse.com</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>$37,700</t>
         </is>
@@ -2925,20 +3385,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>37,586 mi.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>Woodhouse.com</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
         <is>
           <t>$31,646</t>
         </is>
@@ -2952,20 +3417,25 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>8,913 mi.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>Woodhouse.com</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>$40,554</t>
         </is>
@@ -2979,20 +3449,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>22,451 mi.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>Heartland Chrysler Dodge Jeep Ram</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>3.4</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>(116 reviews)</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>$79,995</t>
         </is>
@@ -3006,20 +3481,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>110,151 mi.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>Universal Chrysler Dodge Jeep Ram</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>(6 reviews)</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>$12,970</t>
         </is>
@@ -3033,20 +3513,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>23,008 mi.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>Zeck Ford</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>(13,265 reviews)</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>$42,000</t>
         </is>
@@ -3060,20 +3545,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>42,835 mi.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>Lawrence Kia</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>(1,223 reviews)</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>$18,995</t>
         </is>
@@ -3087,20 +3577,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>36,775 mi.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>Laird Noller Automotive Laird Noller Lawrence Ford</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>(1,553 reviews)</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>$25,499</t>
         </is>
@@ -3114,20 +3609,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>44,781 mi.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>Crown Toyota Volkswagen</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>(424 reviews)</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>$54,988</t>
         </is>
@@ -3141,20 +3641,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>Laird Noller Hyundai</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>(85 reviews)</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>$65,845</t>
         </is>
@@ -3168,20 +3673,25 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>Laird Noller Hyundai</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>(85 reviews)</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>$69,935</t>
         </is>
